--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/64.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/64.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1557252082872617</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.552935808040266</v>
+        <v>-1.551179989710455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008977532198498698</v>
+        <v>0.01548137920771314</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1300902052066597</v>
+        <v>-0.113262366780834</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1400375182642079</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.556880299958245</v>
+        <v>-1.547429889153956</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01906227270867221</v>
+        <v>0.02761864065206274</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08979688972048336</v>
+        <v>-0.06958491018386123</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1296397499473661</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.633966312404825</v>
+        <v>-1.632223873237545</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04202540938900749</v>
+        <v>-0.0351737041539856</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09699487916219141</v>
+        <v>-0.07650429824109906</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1267571869839232</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.778115770543103</v>
+        <v>-1.782945648216814</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09909776870824913</v>
+        <v>-0.1022426589126079</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1013643562429221</v>
+        <v>-0.08038740341334785</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1260531107651486</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.839396269983142</v>
+        <v>-1.864168969923732</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.131055078928017</v>
+        <v>-0.1407352965240162</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1001901379784318</v>
+        <v>-0.08031499853376801</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1217621041965707</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.662341942114073</v>
+        <v>-1.685080222340383</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1430160502307809</v>
+        <v>-0.1697035444324341</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.101159733757153</v>
+        <v>-0.08721864639979283</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1103285350653468</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.328666415599101</v>
+        <v>-1.329867392188653</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1568548263452566</v>
+        <v>-0.1814724854023993</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05511337838262271</v>
+        <v>-0.03562229960355629</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09186485258440021</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8077353432899105</v>
+        <v>-0.7846350386657016</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.09973682047149721</v>
+        <v>-0.1349932747695113</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06559162367312138</v>
+        <v>-0.05310178194560043</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.0676236182034438</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2598932660638422</v>
+        <v>-0.2199037362680769</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1086457686980591</v>
+        <v>-0.1586177277611133</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01189733766851147</v>
+        <v>0.03395406761529801</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03968707416144</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3238679275103078</v>
+        <v>0.3832635390525893</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1343495009488993</v>
+        <v>-0.1755636176210365</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08661602535665512</v>
+        <v>0.1072356758456941</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.008806327412034808</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9877325281865711</v>
+        <v>1.063135914192481</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2178055687793831</v>
+        <v>-0.2841961212967248</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1505133315858566</v>
+        <v>0.162398749970798</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.02573787268780368</v>
       </c>
       <c r="E13" t="n">
-        <v>1.680056968595072</v>
+        <v>1.779701823088133</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3798870397570788</v>
+        <v>-0.4529026387559751</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2566305527057063</v>
+        <v>0.2723612998039854</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.06479516829459393</v>
       </c>
       <c r="E14" t="n">
-        <v>2.346852392875197</v>
+        <v>2.455305458371057</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6227393019443194</v>
+        <v>-0.6995136586048817</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3645153972987767</v>
+        <v>0.3806427972156236</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1093226949615564</v>
       </c>
       <c r="E15" t="n">
-        <v>3.054251214408395</v>
+        <v>3.174945426610611</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9192908004738541</v>
+        <v>-1.002654788185742</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5072395811227166</v>
+        <v>0.5277994188851463</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1595862778332019</v>
       </c>
       <c r="E16" t="n">
-        <v>3.73475791925417</v>
+        <v>3.859665780644108</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.154652305662825</v>
+        <v>-1.238915058292975</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6688630125361138</v>
+        <v>0.690179953495889</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2160070091031329</v>
       </c>
       <c r="E17" t="n">
-        <v>4.403826227145454</v>
+        <v>4.538483562972727</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.449065499216073</v>
+        <v>-1.547982369865532</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8409615412017671</v>
+        <v>0.8622076513010838</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2778518165565788</v>
       </c>
       <c r="E18" t="n">
-        <v>5.075759249837504</v>
+        <v>5.231711490356855</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.660395667470585</v>
+        <v>-1.754508631761835</v>
       </c>
       <c r="G18" t="n">
-        <v>1.000094874365267</v>
+        <v>1.020475273947868</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3410919889859799</v>
       </c>
       <c r="E19" t="n">
-        <v>5.558518784436032</v>
+        <v>5.709802484241605</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.891530931318863</v>
+        <v>-1.997515147822963</v>
       </c>
       <c r="G19" t="n">
-        <v>1.164499597566002</v>
+        <v>1.184931939779607</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4024154836495134</v>
       </c>
       <c r="E20" t="n">
-        <v>5.99191707939057</v>
+        <v>6.158492374959579</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.040802247677853</v>
+        <v>-2.14502828482346</v>
       </c>
       <c r="G20" t="n">
-        <v>1.291308874054471</v>
+        <v>1.311679829522344</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4588606788652022</v>
       </c>
       <c r="E21" t="n">
-        <v>6.28045209853532</v>
+        <v>6.439971066383539</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.239413554422695</v>
+        <v>-2.337330922930129</v>
       </c>
       <c r="G21" t="n">
-        <v>1.405577940203537</v>
+        <v>1.423224268572439</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5082482188322622</v>
       </c>
       <c r="E22" t="n">
-        <v>6.610723808700479</v>
+        <v>6.774853078554988</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.336004024810872</v>
+        <v>-2.425366599394037</v>
       </c>
       <c r="G22" t="n">
-        <v>1.499625582701253</v>
+        <v>1.513835827328356</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5494595733250761</v>
       </c>
       <c r="E23" t="n">
-        <v>6.730185563930717</v>
+        <v>6.893575044798213</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.423742211660855</v>
+        <v>-2.508666839331512</v>
       </c>
       <c r="G23" t="n">
-        <v>1.599857546326559</v>
+        <v>1.611634357392131</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.5811982023142785</v>
       </c>
       <c r="E24" t="n">
-        <v>6.86159884634899</v>
+        <v>7.015956605498463</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.47617200158182</v>
+        <v>-2.552404895664655</v>
       </c>
       <c r="G24" t="n">
-        <v>1.599980319818021</v>
+        <v>1.612306463556927</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6027983059467504</v>
       </c>
       <c r="E25" t="n">
-        <v>6.93657882121127</v>
+        <v>7.09385008975427</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.483452627027396</v>
+        <v>-2.562846938515364</v>
       </c>
       <c r="G25" t="n">
-        <v>1.643311492208308</v>
+        <v>1.654990714088359</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6139645897988314</v>
       </c>
       <c r="E26" t="n">
-        <v>6.926851383041631</v>
+        <v>7.066528265846733</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.507110921430106</v>
+        <v>-2.596971673065163</v>
       </c>
       <c r="G26" t="n">
-        <v>1.665659415692535</v>
+        <v>1.662723870031309</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.6151208881522255</v>
       </c>
       <c r="E27" t="n">
-        <v>6.855433413450855</v>
+        <v>6.984842969527712</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.406708963739699</v>
+        <v>-2.480789386674155</v>
       </c>
       <c r="G27" t="n">
-        <v>1.624635755334075</v>
+        <v>1.626700868421221</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.6073967079829806</v>
       </c>
       <c r="E28" t="n">
-        <v>6.724174384906469</v>
+        <v>6.835393001998455</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.33399242837385</v>
+        <v>-2.389155502498954</v>
       </c>
       <c r="G28" t="n">
-        <v>1.567133688794718</v>
+        <v>1.554953928834093</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.5921990304019907</v>
       </c>
       <c r="E29" t="n">
-        <v>6.563490642908488</v>
+        <v>6.659412942179674</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.248922990944033</v>
+        <v>-2.305633325865376</v>
       </c>
       <c r="G29" t="n">
-        <v>1.51517216956234</v>
+        <v>1.49700798890253</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.5712742609193434</v>
       </c>
       <c r="E30" t="n">
-        <v>6.376568002158425</v>
+        <v>6.451108825685862</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.198711780974541</v>
+        <v>-2.251044768719547</v>
       </c>
       <c r="G30" t="n">
-        <v>1.446244298221461</v>
+        <v>1.430319946771262</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.5458819005209929</v>
       </c>
       <c r="E31" t="n">
-        <v>6.089451174241967</v>
+        <v>6.146846207481075</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.002738530276999</v>
+        <v>-2.031099206804595</v>
       </c>
       <c r="G31" t="n">
-        <v>1.365346011463091</v>
+        <v>1.349347681114191</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.5172091523138564</v>
       </c>
       <c r="E32" t="n">
-        <v>5.82490578052496</v>
+        <v>5.865587878734098</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.873630398861871</v>
+        <v>-1.892266785258071</v>
       </c>
       <c r="G32" t="n">
-        <v>1.279777609971822</v>
+        <v>1.253730741552538</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.4860233727216415</v>
       </c>
       <c r="E33" t="n">
-        <v>5.461804753546833</v>
+        <v>5.483724543830066</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.802895553569739</v>
+        <v>-1.814843932719533</v>
       </c>
       <c r="G33" t="n">
-        <v>1.200182611045889</v>
+        <v>1.171557499305915</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.452774627679306</v>
       </c>
       <c r="E34" t="n">
-        <v>5.151734004784446</v>
+        <v>5.154271323607983</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.720050992167881</v>
+        <v>-1.732868229872632</v>
       </c>
       <c r="G34" t="n">
-        <v>1.08158971437061</v>
+        <v>1.047414611208929</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4182285136928964</v>
       </c>
       <c r="E35" t="n">
-        <v>4.739137946537018</v>
+        <v>4.727167531119527</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.668893796706487</v>
+        <v>-1.678511053537634</v>
       </c>
       <c r="G35" t="n">
-        <v>1.010308684443387</v>
+        <v>0.9764924576413628</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3829456396890542</v>
       </c>
       <c r="E36" t="n">
-        <v>4.269239722178638</v>
+        <v>4.246882354579683</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.585343287728725</v>
+        <v>-1.585340139690483</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9417790399401975</v>
+        <v>0.9028551210895528</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3477480073168749</v>
       </c>
       <c r="E37" t="n">
-        <v>3.893859772035244</v>
+        <v>3.853717562384713</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.551621502073979</v>
+        <v>-1.551649834418163</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8640224953479435</v>
+        <v>0.8277382065637201</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3135123756494357</v>
       </c>
       <c r="E38" t="n">
-        <v>3.545261757240781</v>
+        <v>3.489519444079038</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.458176708899722</v>
+        <v>-1.457863479094583</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7679144618204449</v>
+        <v>0.7272827322231888</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2809874557344959</v>
       </c>
       <c r="E39" t="n">
-        <v>3.110939513062039</v>
+        <v>3.041456012971341</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.433017587264851</v>
+        <v>-1.430961131282872</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7063640181011027</v>
+        <v>0.6702450013246158</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2519422983680583</v>
       </c>
       <c r="E40" t="n">
-        <v>2.694883760785992</v>
+        <v>2.610069314453826</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.43007574552714</v>
+        <v>-1.425688954236075</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6348500333439273</v>
+        <v>0.5965950726198354</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2270353651609033</v>
       </c>
       <c r="E41" t="n">
-        <v>2.344944681700181</v>
+        <v>2.261074646840795</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.395625976028793</v>
+        <v>-1.38703104461693</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5825721362681675</v>
+        <v>0.5431508273751918</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2067285078247311</v>
       </c>
       <c r="E42" t="n">
-        <v>1.968176446691799</v>
+        <v>1.879809439202857</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.365823497986085</v>
+        <v>-1.356465167300392</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5180593885625375</v>
+        <v>0.4803175580719897</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1908006961564242</v>
       </c>
       <c r="E43" t="n">
-        <v>1.731223608171194</v>
+        <v>1.644833568698605</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.345592630220008</v>
+        <v>-1.341170423498714</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4432494077653585</v>
+        <v>0.4043034526470156</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1781758959784804</v>
       </c>
       <c r="E44" t="n">
-        <v>1.520613553664676</v>
+        <v>1.443475598587094</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.346976193027631</v>
+        <v>-1.342059744302248</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3771154203647888</v>
+        <v>0.3432881754289157</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1677809828410173</v>
       </c>
       <c r="E45" t="n">
-        <v>1.29927026277001</v>
+        <v>1.219443883033245</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.276370417303446</v>
+        <v>-1.270425347082293</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3186909786203498</v>
+        <v>0.2794742922131432</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1583717282824066</v>
       </c>
       <c r="E46" t="n">
-        <v>1.076283695912705</v>
+        <v>0.9952185631274771</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.215681749053016</v>
+        <v>-1.211538930725753</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2844922651718498</v>
+        <v>0.2508649206643819</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1488524972487041</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9517567471501226</v>
+        <v>0.8710473426863085</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.164359281583886</v>
+        <v>-1.155083586902061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2079524373603612</v>
+        <v>0.1710873355203778</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1388960042101089</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7895918531589979</v>
+        <v>0.7215564506598969</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.091422383541055</v>
+        <v>-1.081332920973517</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1523848403210831</v>
+        <v>0.1231726194488636</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1281600131086905</v>
       </c>
       <c r="E49" t="n">
-        <v>0.625122595174289</v>
+        <v>0.5530230753039898</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.033406399758593</v>
+        <v>-1.028650500983583</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1054255538561983</v>
+        <v>0.07423479094850391</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1168143024298854</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5482947218636025</v>
+        <v>0.479225188801807</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9786210902226016</v>
+        <v>-0.9788800163680555</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09266812887805627</v>
+        <v>0.07011873094630261</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1057921662445907</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4297317315516281</v>
+        <v>0.3614869845093943</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9608944868785132</v>
+        <v>-0.9626046586538064</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08612650540993061</v>
+        <v>0.07086481600979914</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.09606198435176137</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2942858121445827</v>
+        <v>0.2434103661059018</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9660950460552907</v>
+        <v>-0.9751535260983761</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02738253778386764</v>
+        <v>0.007477491975899143</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.08880445505429257</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2285453295243381</v>
+        <v>0.1713218643694516</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9294487328731681</v>
+        <v>-0.9244913596506316</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0373633930320353</v>
+        <v>0.02311694596514278</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.08461835546760563</v>
       </c>
       <c r="E54" t="n">
-        <v>0.130351720661116</v>
+        <v>0.09477101842411399</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.900168042169172</v>
+        <v>-0.9033404777081536</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.001127670560251717</v>
+        <v>-0.01320354525887059</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.08354446804357875</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08616270784972052</v>
+        <v>0.06607507582368115</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9161427622312528</v>
+        <v>-0.9243103474516821</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0129800345436459</v>
+        <v>-0.0264788225279206</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.08549837774937778</v>
       </c>
       <c r="E56" t="n">
-        <v>0.009035770905986824</v>
+        <v>-0.005815099503485166</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9294912313894432</v>
+        <v>-0.9423415234957421</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04559528475611745</v>
+        <v>-0.05541873809215504</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.08971866839005424</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.08583665761129083</v>
+        <v>-0.09680599686763533</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9628384004933196</v>
+        <v>-0.9808742985947435</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08384237538460286</v>
+        <v>-0.09144173970224258</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.09534374017445514</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1224892668698987</v>
+        <v>-0.1282249925479184</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9641495584213631</v>
+        <v>-0.9862440648270608</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1087244696541241</v>
+        <v>-0.1146160232251526</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1014212129465601</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.194777669034754</v>
+        <v>-0.1958291138077829</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9709996896372637</v>
+        <v>-0.9892158129280765</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1209136737294767</v>
+        <v>-0.1219666925216268</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1067422158547321</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2704533603486485</v>
+        <v>-0.2635056399472273</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.012847349005724</v>
+        <v>-1.038905235558857</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1286200713473648</v>
+        <v>-0.1275245540389396</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.11085497113279</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3441237513020059</v>
+        <v>-0.3303070114552284</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9941023552901546</v>
+        <v>-1.018896304488883</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1667805909241787</v>
+        <v>-0.1646588131486654</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1135480853194551</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4708873812359568</v>
+        <v>-0.461377157705058</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.036053899920621</v>
+        <v>-1.068439343341383</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1877339334669335</v>
+        <v>-0.1880865137501048</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1150083330492757</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5243615328439051</v>
+        <v>-0.5214590415842266</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.067672009019749</v>
+        <v>-1.11057347418992</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2228188196807258</v>
+        <v>-0.2231713999638971</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.115798405762362</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6675453302512647</v>
+        <v>-0.6621684809329016</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.110253161298735</v>
+        <v>-1.155805274669177</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2734644589276967</v>
+        <v>-0.2772169205128776</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1165844964219206</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8356749697025584</v>
+        <v>-0.829459168192542</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.180267892842872</v>
+        <v>-1.230898578908191</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3380999801247881</v>
+        <v>-0.3448666883272598</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1179124433488452</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9477427701104854</v>
+        <v>-0.9445774176575497</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.208246869733552</v>
+        <v>-1.260198944851203</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3714613154007562</v>
+        <v>-0.3753947891848867</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1203753780420807</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.041948601529892</v>
+        <v>-1.046214193348617</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.272141814934072</v>
+        <v>-1.330554451535101</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.433622478539163</v>
+        <v>-0.4484812190442415</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.124272933449287</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.151619170816078</v>
+        <v>-1.170150097931151</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.341508050600233</v>
+        <v>-1.407443711591518</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4532284607140843</v>
+        <v>-0.455754761403772</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1303798483457393</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.323820797734177</v>
+        <v>-1.356689465025178</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.399670418160975</v>
+        <v>-1.469110632725837</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4885494497960718</v>
+        <v>-0.4934226129956187</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1390726512453455</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.384064805582839</v>
+        <v>-1.421007034359766</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.490891122316835</v>
+        <v>-1.56928986671058</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5299823551260698</v>
+        <v>-0.5395586874600632</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1506249645884099</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.447688232484934</v>
+        <v>-1.489587047474837</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.532398793555095</v>
+        <v>-1.62097593259673</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5904577437855635</v>
+        <v>-0.6063506148533366</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.165091836858869</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.526761444072156</v>
+        <v>-1.570057988041774</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.578043774053693</v>
+        <v>-1.663768003437971</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5839696369675621</v>
+        <v>-0.6066591226011115</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1824321505790044</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.58711563325931</v>
+        <v>-1.651692915748913</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.581347640189304</v>
+        <v>-1.665246007392873</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.616230732877741</v>
+        <v>-0.6430661848767965</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2024956975783839</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.641061990603648</v>
+        <v>-1.712785319903957</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.61395659432529</v>
+        <v>-1.694606973072055</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6209370500504301</v>
+        <v>-0.6464629181405633</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2249180887609833</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.644425669465868</v>
+        <v>-1.725972452102214</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.599891159457347</v>
+        <v>-1.677184942427939</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6420981631171965</v>
+        <v>-0.6678727262284953</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2490074827860181</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.558417329630195</v>
+        <v>-1.636474511874618</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.672443996834581</v>
+        <v>-1.756026773204329</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6254387447373501</v>
+        <v>-0.6521766075508848</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2744399859271748</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.502019437504431</v>
+        <v>-1.566037943205972</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.680981476548516</v>
+        <v>-1.761966334358557</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.598971613212679</v>
+        <v>-0.6254686511006547</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.3006080337307022</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.328121804983131</v>
+        <v>-1.393135877778895</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.621543366489959</v>
+        <v>-1.697018370365888</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5590812466215557</v>
+        <v>-0.5841663893577247</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3266959128666312</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.204960317808277</v>
+        <v>-1.265745001225106</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.590055113968339</v>
+        <v>-1.65850212246766</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5685883221142117</v>
+        <v>-0.602536766522425</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3525793531197453</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.020504165021292</v>
+        <v>-1.074880229585745</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.54972244800413</v>
+        <v>-1.612536829077877</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5565092993773503</v>
+        <v>-0.5905632030666906</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.376803634379741</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8748090201058967</v>
+        <v>-0.9289599999360042</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.508694065588306</v>
+        <v>-1.564203423920096</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5218730086131287</v>
+        <v>-0.5530716416164296</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3988171494560668</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6562785013809944</v>
+        <v>-0.6953157496083727</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.496275054721244</v>
+        <v>-1.548400271942238</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4706339641574274</v>
+        <v>-0.4962857537772647</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.4170645259164972</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4460934320372283</v>
+        <v>-0.4793304198026136</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.391288766340049</v>
+        <v>-1.425475674645139</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3844800275530342</v>
+        <v>-0.4085940004913607</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.4302222261814914</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2495787187619588</v>
+        <v>-0.2763527840152835</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.356051987281051</v>
+        <v>-1.376504791743232</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3618330404357599</v>
+        <v>-0.3846090971209809</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.4373648535893112</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.05448377073410243</v>
+        <v>-0.07828923592465403</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.227656099518311</v>
+        <v>-1.242269293040467</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3376293484075192</v>
+        <v>-0.3658940097687157</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.4371053910899467</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2149379342206937</v>
+        <v>0.1978299203912765</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.116330449126077</v>
+        <v>-1.123079056108654</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2721721892291089</v>
+        <v>-0.3035156319915694</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.429208636085463</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4537402452088276</v>
+        <v>0.4416690925675726</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9788099725171577</v>
+        <v>-0.9777294083903848</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2063577277101632</v>
+        <v>-0.2326847715330385</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.4123203026210475</v>
       </c>
       <c r="E88" t="n">
-        <v>0.625892290524605</v>
+        <v>0.6109973475797367</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8266959776250986</v>
+        <v>-0.8226680626936901</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1827143864891056</v>
+        <v>-0.2110073801944854</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.386733373928161</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8150799447902199</v>
+        <v>0.8044757779700172</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7111299197200808</v>
+        <v>-0.7114400014869769</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1222909404606148</v>
+        <v>-0.1434992741010202</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3522947666300338</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9560270610262114</v>
+        <v>0.9486323191943407</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5199778895910826</v>
+        <v>-0.5064397511287754</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1049279355335469</v>
+        <v>-0.1273671521268095</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.310156389366991</v>
       </c>
       <c r="E91" t="n">
-        <v>1.078950084304189</v>
+        <v>1.076201846918398</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3206866065858386</v>
+        <v>-0.3079354776841818</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1246614132572936</v>
+        <v>-0.1500424715882672</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2630134504180014</v>
       </c>
       <c r="E92" t="n">
-        <v>1.144114475926037</v>
+        <v>1.143982258319848</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1843954389106547</v>
+        <v>-0.1719402256038023</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08595470904538838</v>
+        <v>-0.1106337548482619</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2136276515066395</v>
       </c>
       <c r="E93" t="n">
-        <v>1.1767438923106</v>
+        <v>1.171011314670823</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08468290159537743</v>
+        <v>-0.07214898733246006</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0823077067413347</v>
+        <v>-0.1052710717019904</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.165767994200567</v>
       </c>
       <c r="E94" t="n">
-        <v>1.166585172901726</v>
+        <v>1.168307149820428</v>
       </c>
       <c r="F94" t="n">
-        <v>0.07074833859482289</v>
+        <v>0.08807041902473696</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04394571271699433</v>
+        <v>-0.06299449212297525</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1224617926904651</v>
       </c>
       <c r="E95" t="n">
-        <v>1.183230425109481</v>
+        <v>1.189491873174015</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1523029913267754</v>
+        <v>0.1723134964158711</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07690409909790943</v>
+        <v>-0.09621888773539017</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.08622099781097446</v>
       </c>
       <c r="E96" t="n">
-        <v>1.103528392883299</v>
+        <v>1.108030087570219</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2349484393097893</v>
+        <v>0.2614423291595225</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1018900786294366</v>
+        <v>-0.1161632840213912</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.05856710441940595</v>
       </c>
       <c r="E97" t="n">
-        <v>1.055429516574592</v>
+        <v>1.062948605917046</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2842183858447435</v>
+        <v>0.313011917630697</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06601660883587257</v>
+        <v>-0.08157736186905117</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03609471638673212</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9347919690607438</v>
+        <v>0.9367642150197335</v>
       </c>
       <c r="F98" t="n">
-        <v>0.263250877129897</v>
+        <v>0.2897416189413876</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1230952642315994</v>
+        <v>-0.1378721557423703</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.01595584208736554</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9053184610143884</v>
+        <v>0.9131570762384658</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2397019770561174</v>
+        <v>0.2585980766073322</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1086284544877248</v>
+        <v>-0.1220737258218753</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.007454395595941775</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8469050374037985</v>
+        <v>0.8515342276395439</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2322332563255456</v>
+        <v>0.2535045507308031</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1094784248132272</v>
+        <v>-0.1209845045899352</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.03454497943363626</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7918647367701561</v>
+        <v>0.796434114279292</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2057440885331764</v>
+        <v>0.2200235900016162</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09429386235003943</v>
+        <v>-0.104536004772343</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07197953489205121</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7807867901944419</v>
+        <v>0.7895808350251488</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1723591429703888</v>
+        <v>0.1820141762604472</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07664123790465222</v>
+        <v>-0.08559898072397443</v>
       </c>
     </row>
   </sheetData>
